--- a/component-sourcing/OSCHSSP_electrical_BOM_seeed_v1.0.xlsx
+++ b/component-sourcing/OSCHSSP_electrical_BOM_seeed_v1.0.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Heat Processes Projects\Mini Press 1000\open-source-cold-and-hot-scientific-sheet-press\component-sourcing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1E4A6-A683-4EB2-96F6-B6F996B32F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6270A78D-D103-416E-A20A-EC65C6B9EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Grove - 16x2 LCD (White on Blue)</t>
   </si>
@@ -45,26 +57,119 @@
     <t>https://www.seeedstudio.com/Grove-I2C-Thermocouple-Amplifier-MCP9600.html?queryID=8c6811bda9bf204296e93285811f07b3&amp;objectID=18&amp;indexName=bazaar_retailer_products</t>
   </si>
   <si>
-    <t>SD card</t>
-  </si>
-  <si>
-    <t>Grove - 10A DC Current Sensor (ACS725)</t>
-  </si>
-  <si>
-    <t>https://www.seeedstudio.com/Grove-10A-DC-Current-Sensor-ACS725-p-2927.html?queryID=2d6ab62845a7cd025ab8ece9cb3a0862&amp;objectID=2927&amp;indexName=bazaar_retailer_products</t>
-  </si>
-  <si>
     <t>Grove - AC Voltage Sensor (MCP6002)</t>
   </si>
   <si>
     <t>https://www.seeedstudio.com/Grove-AC-Voltage-sensor-p-5540.html?queryID=f286389cc52ab1dde7dede82db1f80ee&amp;objectID=5540&amp;indexName=bazaar_retailer_products</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Bill of materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project name: </t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Number of products to buy</t>
+  </si>
+  <si>
+    <t>Cost/Product</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Special instructions</t>
+  </si>
+  <si>
+    <t>Grove - 1-Wire Thermocouple Amplifier (MAX31850K)</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/Grove-1-Wire-Thermocouple-Amplifier-MAX31850K.html?queryID=57685d047e49281c6bc1aae8fe602441&amp;objectID=52&amp;indexName=bazaar_retailer_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2pcs Micro SD Card Module Storage Board 6-pin TF Card Memory Adapter Reader Module SPI Interface fit Arduino </t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Module-Storage-Adapter-Interface-Arduino/dp/B07PFDFPPC/ref=sr_1_2_sspa?crid=37XKEJW31GBTQ&amp;keywords=sd+card+module&amp;qid=1698121626&amp;sprefix=sd+card+module%2Caps%2C122&amp;sr=8-2-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Alternative to "Grove - AC Voltage Sensor (MCP6002)"</t>
+  </si>
+  <si>
+    <t>AC Voltage Transformer Module AMPT101B</t>
+  </si>
+  <si>
+    <t>Current Sensor Module ACS712</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/DAOKI-Current-Sensor-Module-Arduino/dp/B00XT0PL20/ref=sr_1_39?crid=UF8ZX6NE3E7H&amp;keywords=ACS712%2B20A&amp;qid=1685670676&amp;sprefix=acs712%2B20a%2Caps%2C464&amp;sr=8-39&amp;th=1</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>5pack</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/ZMPT101B-Voltage-Transformer-Module-Single/dp/B082FL9V9W</t>
+  </si>
+  <si>
+    <t>Grove - Universal 4 Pin Buckled 30cm Cable (5 PCs Pack)</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/Grove-Universal-4-Pin-Buckled-30cm-Cable-5-PCs-Pack.html?queryID=a04a6e73403794c25d4b26aa9bac5b64&amp;objectID=1700&amp;indexName=bazaar_retailer_products</t>
+  </si>
+  <si>
+    <t>Grove - Universal 4 Pin Buckled 20cm Cable (5 PCs pack)</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/Grove-Universal-4-Pin-Buckled-20cm-Cable-5-PCs-pack.html?queryID=a04a6e73403794c25d4b26aa9bac5b64&amp;objectID=1693&amp;indexName=bazaar_retailer_products</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/Grove-Universal-4-Pin-Buckled-50cm-Cable-5-PCs-Pack.html?queryID=028617b4f597450043153e7703a0a85c&amp;objectID=1698&amp;indexName=bazaar_retailer_products</t>
+  </si>
+  <si>
+    <t>Grove - Universal 4 Pin Buckled 50cm Cable (5 PCs Pack)</t>
+  </si>
+  <si>
+    <t>Grove Shield for Arduino Nano v1.2</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/Grove-Shield-for-Arduino-Nano-p-4112.html?queryID=af7210a6ffbc4fad8307b4cd9507a126&amp;objectID=4112&amp;indexName=bazaar_retailer_products</t>
+  </si>
+  <si>
+    <t>Seeeduino Nano</t>
+  </si>
+  <si>
+    <t>https://www.seeedstudio.com/Seeeduino-Nano-p-4111.html?queryID=dd1c56cf11158dbf9418a8dd58b38c8f&amp;objectID=4111&amp;indexName=bazaar_retailer_products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +184,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,17 +222,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0A9057F5-1FB9-4899-96AC-1186F5FECE92}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,11 +514,495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4DD5A9-0A58-454E-826E-C9E17C9A2C64}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E27" si="0">C3*D3</f>
+        <v>6.5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>87.9</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>87.9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24.42</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>24.42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>14.99</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>14.99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.39</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>9.39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{A3F9082B-273D-482C-828F-125872946D3E}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{EF9AC478-3B66-4816-B16C-A614C2BD2850}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{0118D205-B020-4B68-920A-9111966EB473}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{CC944C93-DDD6-4B9B-A1D3-847A4B6C2714}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{EA2171C0-3E69-459F-A123-CA9104257B4C}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{F84D279E-7783-43C5-A90F-74C39EF699E1}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{C151C56B-509E-47C9-97B0-AEE2B5491F3C}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{7972495F-4564-456B-9C18-45647C7A080C}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{81418DB4-15BE-4FCE-B6E3-78E71414DCD6}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{3811BA0F-8EE4-43E3-ABD8-A6C7EE27598F}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{57A2AF0A-C96B-4F1B-8708-BEB883E56D86}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{BB5DD2F4-13D2-4615-97A2-93E7531B89EA}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{7A1E390C-AB70-47CE-BEF6-AA3BD0453530}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,59 +1010,21 @@
     <col min="1" max="2" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A3F9082B-273D-482C-828F-125872946D3E}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{EF9AC478-3B66-4816-B16C-A614C2BD2850}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{0118D205-B020-4B68-920A-9111966EB473}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{A41A894E-942E-400E-B5F0-E8E2647C7132}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{F84D279E-7783-43C5-A90F-74C39EF699E1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/component-sourcing/OSCHSSP_electrical_BOM_seeed_v1.0.xlsx
+++ b/component-sourcing/OSCHSSP_electrical_BOM_seeed_v1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6270A78D-D103-416E-A20A-EC65C6B9EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0273CC00-5B4D-4457-9784-B1F67C91D340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -518,22 +518,22 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B3" sqref="B3:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="3" customWidth="1"/>
     <col min="5" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="3"/>
+    <col min="6" max="6" width="32.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -567,7 +567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -630,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -651,7 +651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -672,7 +672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -696,7 +696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -741,7 +741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -762,7 +762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -783,7 +783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -804,7 +804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -954,22 +954,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36"/>
     </row>
   </sheetData>
@@ -1005,12 +1005,12 @@
       <selection activeCell="B7" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="2" width="31.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
